--- a/tables/xls/it/91_Servizi.xlsx
+++ b/tables/xls/it/91_Servizi.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+  <si>
+    <t>NOME</t>
+  </si>
   <si>
     <t>ORDINE</t>
   </si>
@@ -24,12 +27,18 @@
     <t>LETTERA</t>
   </si>
   <si>
-    <t>NOME</t>
+    <t>COLORE</t>
   </si>
   <si>
     <t>DESCRIZIONE</t>
   </si>
   <si>
+    <t>LATITUDINE</t>
+  </si>
+  <si>
+    <t>LONGITUDINE</t>
+  </si>
+  <si>
     <t>COMUNE</t>
   </si>
   <si>
@@ -39,12 +48,6 @@
     <t>INDIRIZZO</t>
   </si>
   <si>
-    <t>LATITUDINE</t>
-  </si>
-  <si>
-    <t>LONGITUDINE</t>
-  </si>
-  <si>
     <t>INIZIO</t>
   </si>
   <si>
@@ -66,115 +69,127 @@
     <t>Tipo</t>
   </si>
   <si>
+    <t>Elenco di valori (separati da virgola)</t>
+  </si>
+  <si>
+    <t>Dim. massima</t>
+  </si>
+  <si>
+    <t>Obbligatorio</t>
+  </si>
+  <si>
+    <t>Valore predefinito</t>
+  </si>
+  <si>
+    <t>Sola lettura</t>
+  </si>
+  <si>
+    <t>Visibile</t>
+  </si>
+  <si>
+    <t>Forza</t>
+  </si>
+  <si>
+    <t>Valore unico</t>
+  </si>
+  <si>
+    <t>Opzioni campo</t>
+  </si>
+  <si>
+    <t>Scheda dati per suggerimento</t>
+  </si>
+  <si>
+    <t>Campo suggerimento</t>
+  </si>
+  <si>
+    <t>Testo aiuto</t>
+  </si>
+  <si>
+    <t>Configurazione Scheda Dati</t>
+  </si>
+  <si>
+    <t>Nome Scheda Dati</t>
+  </si>
+  <si>
+    <t>Descrizione Scheda Dati</t>
+  </si>
+  <si>
+    <t>Ordina scheda per</t>
+  </si>
+  <si>
+    <t>Direzione ordinamento</t>
+  </si>
+  <si>
+    <t>Consenti modifiche</t>
+  </si>
+  <si>
+    <t>Consenti inserimenti</t>
+  </si>
+  <si>
+    <t>Consenti cancellazioni</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Testo</t>
+  </si>
+  <si>
+    <t>Sì</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Numero Intero</t>
   </si>
   <si>
-    <t>Testo</t>
+    <t>Numero utilizzato per ordinare i servizi negli elenchi (es. movimentazione risorse)</t>
+  </si>
+  <si>
+    <t>Verrà utilizzata per identificare il servizio sulla mappa</t>
+  </si>
+  <si>
+    <t>Testo - Elenco di valori</t>
+  </si>
+  <si>
+    <t>rosso,nero,blu,verde,grigio,arancione,viola,bianco,giallo</t>
+  </si>
+  <si>
+    <t>Verrà utilizzato per identificare il servizio sulla mappa</t>
   </si>
   <si>
     <t>Testo Lungo</t>
   </si>
   <si>
+    <t>[segreteriacampo_it_city]</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>Coordinate in Gradi Decimali (Decimal Degrees - DD). In questo formato, sia la latitudine che la longitudine sono rappresentate come numeri decimali. Esempio: Latitudine: 41.40338, Longitudine: 2.17403.</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
     <t>Data e ora</t>
   </si>
   <si>
-    <t>Elenco di valori (separati da virgola)</t>
-  </si>
-  <si>
-    <t>Dim. massima</t>
-  </si>
-  <si>
-    <t>Obbligatorio</t>
-  </si>
-  <si>
-    <t>Sì</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Valore predefinito</t>
-  </si>
-  <si>
-    <t>Sola lettura</t>
-  </si>
-  <si>
-    <t>Visibile</t>
-  </si>
-  <si>
-    <t>Forza</t>
-  </si>
-  <si>
-    <t>Valore unico</t>
-  </si>
-  <si>
-    <t>Opzioni campo</t>
-  </si>
-  <si>
-    <t>Scheda dati per suggerimento</t>
-  </si>
-  <si>
-    <t>[segreteriacampo_it_city]</t>
-  </si>
-  <si>
-    <t>Campo suggerimento</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>Testo aiuto</t>
-  </si>
-  <si>
-    <t>Numero utilizzato per ordinare i servizi negli elenchi (es. movimentazione risorse)</t>
-  </si>
-  <si>
-    <t>Verrà utilizzata per identificare il servizio sulla mappa</t>
-  </si>
-  <si>
-    <t>Configurazione Scheda Dati</t>
+    <t>SERVIZI</t>
+  </si>
+  <si>
+    <t>Crescente</t>
   </si>
   <si>
     <t>Elenco segnalibri</t>
-  </si>
-  <si>
-    <t>Nome Scheda Dati</t>
-  </si>
-  <si>
-    <t>SERVIZI</t>
-  </si>
-  <si>
-    <t>Descrizione Scheda Dati</t>
-  </si>
-  <si>
-    <t>Ordina scheda per</t>
-  </si>
-  <si>
-    <t>Direzione ordinamento</t>
-  </si>
-  <si>
-    <t>Crescente</t>
-  </si>
-  <si>
-    <t>Consenti modifiche</t>
-  </si>
-  <si>
-    <t>Consenti inserimenti</t>
-  </si>
-  <si>
-    <t>Consenti cancellazioni</t>
-  </si>
-  <si>
-    <t>Categoria</t>
   </si>
 </sst>
 </file>
@@ -198,22 +213,23 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,19 +525,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="5.856" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,12 +593,14 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -575,15 +609,16 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,7 +626,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -631,10 +666,13 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -664,21 +702,24 @@
         <v>9</v>
       </c>
       <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
         <v>13</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>14</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>15</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -719,59 +760,67 @@
       <c r="N3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>20</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
-      <c r="E5"/>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
@@ -781,19 +830,20 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>255</v>
       </c>
       <c r="C6">
+        <v>255</v>
+      </c>
+      <c r="D6">
         <v>1</v>
-      </c>
-      <c r="D6">
-        <v>255</v>
       </c>
       <c r="E6">
         <v>255</v>
@@ -825,54 +875,60 @@
       <c r="N6">
         <v>255</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>40</v>
+      </c>
+      <c r="O7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -887,164 +943,181 @@
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>40</v>
+      </c>
+      <c r="O9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
+      <c r="B11"/>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11"/>
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
       <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>40</v>
+      </c>
+      <c r="O12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -1059,158 +1132,167 @@
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
+      <c r="F14"/>
       <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14"/>
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
+      <c r="F15"/>
       <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15"/>
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B16"/>
       <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16"/>
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
       <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1219,5 +1301,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>